--- a/Archief/9Comparison.xlsx
+++ b/Archief/9Comparison.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SN_difference9" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -402,7 +399,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -517,7 +513,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -575,11 +570,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2134537280"/>
-        <c:axId val="2134557968"/>
+        <c:axId val="2126782624"/>
+        <c:axId val="2125676976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134537280"/>
+        <c:axId val="2126782624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +612,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134557968"/>
+        <c:crossAx val="2125676976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -625,7 +620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134557968"/>
+        <c:axId val="2125676976"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -677,7 +672,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134537280"/>
+        <c:crossAx val="2126782624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -691,7 +686,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -782,7 +776,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -897,7 +890,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -955,11 +947,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="-2123348928"/>
-        <c:axId val="-2123347328"/>
+        <c:axId val="2125944208"/>
+        <c:axId val="2125947584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123348928"/>
+        <c:axId val="2125944208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +989,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123347328"/>
+        <c:crossAx val="2125947584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,7 +997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123347328"/>
+        <c:axId val="2125947584"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1016,7 +1008,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123348928"/>
+        <c:crossAx val="2125944208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1118,7 +1110,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1218,7 +1209,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1276,11 +1266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2137580576"/>
-        <c:axId val="2096928032"/>
+        <c:axId val="2125999552"/>
+        <c:axId val="2126002896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137580576"/>
+        <c:axId val="2125999552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1313,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096928032"/>
+        <c:crossAx val="2126002896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1331,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096928032"/>
+        <c:axId val="2126002896"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1368,7 +1358,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1431,7 +1420,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137580576"/>
+        <c:crossAx val="2125999552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1445,7 +1434,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1522,7 +1510,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1623,11 +1610,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2137542304"/>
-        <c:axId val="2146774448"/>
+        <c:axId val="2126844320"/>
+        <c:axId val="2126847728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137542304"/>
+        <c:axId val="2126844320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1657,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146774448"/>
+        <c:crossAx val="2126847728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +1665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146774448"/>
+        <c:axId val="2126847728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +1718,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137542304"/>
+        <c:crossAx val="2126844320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,7 +1777,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1916,11 +1902,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2144806912"/>
-        <c:axId val="2143018416"/>
+        <c:axId val="2126892928"/>
+        <c:axId val="2126896320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144806912"/>
+        <c:axId val="2126892928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,7 +1949,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143018416"/>
+        <c:crossAx val="2126896320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1971,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143018416"/>
+        <c:axId val="2126896320"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2023,7 +2009,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144806912"/>
+        <c:crossAx val="2126892928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2037,7 +2023,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2114,7 +2099,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2240,11 +2224,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2144820816"/>
-        <c:axId val="2146504048"/>
+        <c:axId val="2126934752"/>
+        <c:axId val="2126938144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144820816"/>
+        <c:axId val="2126934752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2271,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146504048"/>
+        <c:crossAx val="2126938144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2295,7 +2279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146504048"/>
+        <c:axId val="2126938144"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2347,7 +2331,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144820816"/>
+        <c:crossAx val="2126934752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2361,7 +2345,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2676,11 +2659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2142902896"/>
-        <c:axId val="2143013456"/>
+        <c:axId val="2126983184"/>
+        <c:axId val="2126986512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142902896"/>
+        <c:axId val="2126983184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,7 +2706,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143013456"/>
+        <c:crossAx val="2126986512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2731,7 +2714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143013456"/>
+        <c:axId val="2126986512"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2831,7 +2814,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142902896"/>
+        <c:crossAx val="2126983184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2922,7 +2905,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3145,11 +3127,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2136783152"/>
-        <c:axId val="-2124843056"/>
+        <c:axId val="2127031584"/>
+        <c:axId val="2127034912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136783152"/>
+        <c:axId val="2127031584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3192,7 +3174,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124843056"/>
+        <c:crossAx val="2127034912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3200,7 +3182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124843056"/>
+        <c:axId val="2127034912"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3252,7 +3234,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136783152"/>
+        <c:crossAx val="2127031584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3266,7 +3248,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7826,7 +7807,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7837,7 +7818,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7848,7 +7829,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7859,7 +7840,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7870,7 +7851,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7881,7 +7862,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8081,7 +8062,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9321101" cy="6082018"/>
+    <xdr:ext cx="9309340" cy="6074434"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafiek 1"/>
@@ -8393,8 +8374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9118,7 +9099,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
